--- a/Results/coef_SBM.xlsx
+++ b/Results/coef_SBM.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="15">
   <si>
     <t>Row</t>
   </si>
@@ -78,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -96,11 +96,39 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -112,6 +140,34 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -121,103 +177,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D1:H11"/>
+  <dimension ref="D1:N11"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="15.7265625" customWidth="true"/>
-    <col min="5" max="5" width="15.08984375" customWidth="true"/>
-    <col min="6" max="6" width="13.08984375" customWidth="true"/>
-    <col min="7" max="7" width="12.453125" customWidth="true"/>
-    <col min="8" max="8" width="11.453125" customWidth="true"/>
+    <col min="4" max="4" width="10" customWidth="true"/>
+    <col min="5" max="5" width="15.36328125" customWidth="true"/>
+    <col min="6" max="6" width="15.7265625" customWidth="true"/>
+    <col min="7" max="7" width="13.08984375" customWidth="true"/>
+    <col min="8" max="8" width="12.453125" customWidth="true"/>
+    <col min="9" max="9" width="13.08984375" customWidth="true"/>
+    <col min="10" max="10" width="12.453125" customWidth="true"/>
+    <col min="11" max="11" width="14.08984375" customWidth="true"/>
+    <col min="12" max="12" width="12.453125" customWidth="true"/>
+    <col min="13" max="13" width="15.08984375" customWidth="true"/>
+    <col min="14" max="14" width="13.7265625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="D2" s="37" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="D2" s="9" t="s">
-        <v>1</v>
       </c>
       <c r="E2">
         <v>-0.47788106568836397</v>
       </c>
       <c r="F2">
+        <v>0.51568084705871653</v>
+      </c>
+      <c r="G2">
+        <v>-0.23044316934662892</v>
+      </c>
+      <c r="H2">
+        <v>0.37767683511566508</v>
+      </c>
+      <c r="I2">
+        <v>-0.19184224453821472</v>
+      </c>
+      <c r="J2">
+        <v>0.43750432212541823</v>
+      </c>
+      <c r="K2">
+        <v>-0.017880945692088344</v>
+      </c>
+      <c r="L2">
+        <v>0.24929723794565045</v>
+      </c>
+      <c r="M2">
+        <v>-0.0088650126208905406</v>
+      </c>
+      <c r="N2">
+        <v>0.14149951888710244</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="D3" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
         <v>-2.5648175596152694</v>
-      </c>
-      <c r="G2">
-        <v>1.4220625926260226</v>
-      </c>
-      <c r="H2">
-        <v>33.707469206196649</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="D3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>0.51568084705871653</v>
       </c>
       <c r="F3">
         <v>3.5680579684184957</v>
       </c>
       <c r="G3">
+        <v>-1.6356958806153623</v>
+      </c>
+      <c r="H3">
+        <v>2.8616280959199418</v>
+      </c>
+      <c r="I3">
+        <v>-1.6497412338141544</v>
+      </c>
+      <c r="J3">
+        <v>3.593814598297945</v>
+      </c>
+      <c r="K3">
+        <v>-0.20267264514710612</v>
+      </c>
+      <c r="L3">
+        <v>2.1290143263580825</v>
+      </c>
+      <c r="M3">
+        <v>-0.14184294643478032</v>
+      </c>
+      <c r="N3">
+        <v>1.1143400135808748</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="D4" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>1.4220625926260226</v>
+      </c>
+      <c r="F4">
         <v>1.0660319142933561</v>
-      </c>
-      <c r="H3">
-        <v>32.575559652865408</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="D4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>-0.23044316934662892</v>
-      </c>
-      <c r="F4">
-        <v>-1.6356958806153623</v>
       </c>
       <c r="G4">
         <v>1.3978891971086225</v>
       </c>
       <c r="H4">
+        <v>1.1230322129198536</v>
+      </c>
+      <c r="I4">
+        <v>1.3256964789035204</v>
+      </c>
+      <c r="J4">
+        <v>1.0619985397746741</v>
+      </c>
+      <c r="K4">
+        <v>1.2263946862450743</v>
+      </c>
+      <c r="L4">
+        <v>1.0889204754640951</v>
+      </c>
+      <c r="M4">
+        <v>0.98058931608773325</v>
+      </c>
+      <c r="N4">
+        <v>0.96422957857470426</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>33.707469206196649</v>
+      </c>
+      <c r="F5">
+        <v>32.575559652865408</v>
+      </c>
+      <c r="G5">
         <v>43.820996388863676</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="D5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>0.37767683511566508</v>
-      </c>
-      <c r="F5">
-        <v>2.8616280959199418</v>
-      </c>
-      <c r="G5">
-        <v>1.1230322129198536</v>
       </c>
       <c r="H5">
         <v>37.579918669853093</v>
       </c>
+      <c r="I5">
+        <v>50.34849163544559</v>
+      </c>
+      <c r="J5">
+        <v>38.527250746415383</v>
+      </c>
+      <c r="K5">
+        <v>61.391138970442896</v>
+      </c>
+      <c r="L5">
+        <v>41.070317505911362</v>
+      </c>
+      <c r="M5">
+        <v>69.292514617674499</v>
+      </c>
+      <c r="N5">
+        <v>33.53621081488162</v>
+      </c>
     </row>
     <row r="6">
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E6">
@@ -234,7 +386,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E7">
@@ -251,7 +403,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E8">
@@ -268,7 +420,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E9">
@@ -285,7 +437,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E10">
@@ -302,7 +454,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E11">
